--- a/GS1_vs_Datamodel_Comparison_Attributes.xlsx
+++ b/GS1_vs_Datamodel_Comparison_Attributes.xlsx
@@ -706,7 +706,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -774,7 +778,7 @@
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.110 Bit Length</t>
+          <t>GS1 Field_ID 9.129 To Be Used With Hub</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -811,7 +815,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -879,7 +887,7 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.120 Glass Fixing Type</t>
+          <t>GS1 Field_ID 4.062 Stibat Quantity</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -916,7 +924,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -984,7 +996,7 @@
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.118 Accessories Available</t>
+          <t>GS1 Field_ID 9.133 Mounting Length</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1021,7 +1033,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -1089,7 +1105,7 @@
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.102 Type of Stone</t>
+          <t>GS1 Field_ID 8.304 Recytyre category Code</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1126,7 +1142,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1194,7 +1214,7 @@
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.125 TSA Certificate Indicator</t>
+          <t>GS1 Field_ID 9.128 Sensor Adjustability</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr"/>
@@ -1231,7 +1251,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1299,7 +1323,7 @@
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.064 Stibat weight</t>
+          <t>GS1 Field_ID 8.332 Wecycle weight</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr"/>
@@ -1336,7 +1360,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1404,7 +1432,7 @@
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.022 Recupel weight</t>
+          <t>GS1 Field_ID 9.121 Suspension Height Gutter</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr"/>
@@ -1441,7 +1469,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1509,7 +1541,7 @@
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.111 Drill Length</t>
+          <t>GS1 Field_ID 9.109 PoE Indicator</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr"/>
@@ -1546,7 +1578,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1614,7 +1650,7 @@
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 0.133 Volatile Organic Compound Basis</t>
+          <t>GS1 Field_ID 4.002 Recupel Quantity</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr"/>
@@ -1651,7 +1687,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1719,7 +1759,7 @@
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 0.132 Volatile Organic Compound</t>
+          <t>GS1 Field_ID 9.102 Type of Stone</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr"/>
@@ -1756,7 +1796,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1824,7 +1868,7 @@
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.132 Lighting Accessories Included</t>
+          <t>GS1 Field_ID 9.136 Maximum Wattage Light Source</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr"/>
@@ -1861,7 +1905,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1929,7 +1977,7 @@
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 0.138 Power Supply Type code</t>
+          <t>GS1 Field_ID 9.111 Drill Length</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr"/>
@@ -1966,7 +2014,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2034,7 +2086,7 @@
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.115 Active Substance</t>
+          <t>GS1 Field_ID 9.127 Sole Type</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr"/>
@@ -2071,7 +2123,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2139,7 +2195,7 @@
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.127 Sole Type</t>
+          <t>GS1 Field_ID 8.293 Recytyre Quantity</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr"/>
@@ -2176,7 +2232,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2244,7 +2304,7 @@
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.126 Membrane Type</t>
+          <t>GS1 Field_ID 9.115 Active Substance</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr"/>
@@ -2281,7 +2341,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2349,7 +2413,7 @@
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.119 Available Accessories Included</t>
+          <t>GS1 Field_ID 9.113 Quick Connect Indicator</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr"/>
@@ -2386,7 +2450,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2454,7 +2522,7 @@
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.130 Light Bulb Base Type</t>
+          <t>GS1 Field_ID 0.133 Volatile Organic Compound Basis</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr"/>
@@ -2491,7 +2559,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2559,7 +2631,7 @@
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.100 Type of Game</t>
+          <t>GS1 Field_ID 4.653 Stibat Code Text</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr"/>
@@ -2596,7 +2668,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2664,7 +2740,7 @@
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.112 Type of Bit</t>
+          <t>GS1 Field_ID 9.132 Lighting Accessories Included</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr"/>
@@ -2701,7 +2777,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2769,7 +2849,7 @@
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.653 Stibat Code Text</t>
+          <t>GS1 Field_ID 7.252 Origin of wood</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr"/>
@@ -2806,7 +2886,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -2874,7 +2958,7 @@
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.106 Fertilizer Category</t>
+          <t>GS1 Field_ID 9.126 Membrane Type</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr"/>
@@ -2911,7 +2995,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2979,7 +3067,7 @@
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.137 Light Source Wattage</t>
+          <t>GS1 Field_ID 9.117 Foundation Needed Indicator</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr"/>
@@ -3016,7 +3104,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -3084,7 +3176,7 @@
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.650 Recupel Code</t>
+          <t>GS1 Field_ID 4.651 Bebat Code Text</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr"/>
@@ -3121,7 +3213,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3189,7 +3285,7 @@
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.123 Outer Width</t>
+          <t>GS1 Field_ID 9.112 Type of Bit</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr"/>
@@ -3226,7 +3322,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3294,7 +3394,7 @@
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 8.293 Recytyre Quantity</t>
+          <t>GS1 Field_ID 4.064 Stibat weight</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr"/>
@@ -3331,7 +3431,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3399,7 +3503,7 @@
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.107 Raised Bottom Indicator</t>
+          <t>GS1 Field_ID 9.120 Glass Fixing Type</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr"/>
@@ -3436,7 +3540,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3504,7 +3612,7 @@
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.133 Mounting Length</t>
+          <t>GS1 Field_ID 9.119 Available Accessories Included</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr"/>
@@ -3541,7 +3649,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3609,7 +3721,7 @@
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 8.304 Recytyre category Code</t>
+          <t>GS1 Field_ID 9.104 Binding Type</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr"/>
@@ -3646,7 +3758,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -3714,7 +3830,7 @@
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 8.331 Wecycle Quantity</t>
+          <t>GS1 Field_ID 9.110 Bit Length</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr"/>
@@ -3751,7 +3867,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -3819,7 +3939,7 @@
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.103 Material Description</t>
+          <t>GS1 Field_ID 4.656 Recytyre Indicator</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr"/>
@@ -3856,7 +3976,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3924,7 +4048,7 @@
       <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.101 Playing Time</t>
+          <t>GS1 Field_ID 9.105 Book Cover Type</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr"/>
@@ -3961,7 +4085,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -4029,7 +4157,7 @@
       <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 7.252 Origin of wood</t>
+          <t>GS1 Field_ID 9.123 Outer Width</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr"/>
@@ -4066,7 +4194,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -4134,7 +4266,7 @@
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.124 ECO License Number</t>
+          <t>GS1 Field_ID 9.101 Playing Time</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr"/>
@@ -4171,7 +4303,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4239,7 +4375,7 @@
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.104 Binding Type</t>
+          <t>GS1 Field_ID 9.100 Type of Game</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr"/>
@@ -4276,7 +4412,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -4344,7 +4484,7 @@
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.131 Period of Update Support</t>
+          <t>GS1 Field_ID 4.655 Valorlub Indicator</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr"/>
@@ -4381,7 +4521,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -4449,7 +4593,7 @@
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.128 Sensor Adjustability</t>
+          <t>GS1 Field_ID 9.137 Light Source Wattage</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr"/>
@@ -4486,7 +4630,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -4554,7 +4702,7 @@
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 8.330 Wecycle Code</t>
+          <t>GS1 Field_ID 9.107 Raised Bottom Indicator</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr"/>
@@ -4591,7 +4739,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -4659,7 +4811,7 @@
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.113 Quick Connect Indicator</t>
+          <t>GS1 Field_ID 8.331 Wecycle Quantity</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr"/>
@@ -4696,7 +4848,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -4764,7 +4920,7 @@
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.117 Foundation Needed Indicator</t>
+          <t>GS1 Field_ID 4.023 Bebat Quantity</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr"/>
@@ -4801,7 +4957,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -4869,7 +5029,7 @@
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.122 Depth Outside</t>
+          <t>GS1 Field_ID 4.650 Recupel Code</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr"/>
@@ -4906,7 +5066,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -4974,7 +5138,7 @@
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.002 Recupel Quantity</t>
+          <t>GS1 Field_ID 0.138 Power Supply Type code</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr"/>
@@ -5011,7 +5175,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5079,7 +5247,7 @@
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.134 Power Cord/Cable</t>
+          <t>GS1 Field_ID 9.106 Fertilizer Category</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr"/>
@@ -5116,7 +5284,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5184,7 +5356,7 @@
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.062 Stibat Quantity</t>
+          <t>GS1 Field_ID 9.131 Period of Update Support</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr"/>
@@ -5221,7 +5393,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5289,7 +5465,7 @@
       <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.105 Book Cover Type</t>
+          <t>GS1 Field_ID 9.116 Glass Thickness</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr"/>
@@ -5326,7 +5502,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -5394,7 +5574,7 @@
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.655 Valorlub Indicator</t>
+          <t>GS1 Field_ID 4.022 Recupel weight</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr"/>
@@ -5431,7 +5611,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -5499,7 +5683,7 @@
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.114 Time Setting Range</t>
+          <t>GS1 Field_ID 4.654 Auvibel Indicator</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr"/>
@@ -5536,7 +5720,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -5604,7 +5792,7 @@
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.109 PoE Indicator</t>
+          <t>GS1 Field_ID 8.330 Wecycle Code</t>
         </is>
       </c>
       <c r="AQ48" t="inlineStr"/>
@@ -5641,7 +5829,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -5709,7 +5901,7 @@
       <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.654 Auvibel Indicator</t>
+          <t>GS1 Field_ID 9.122 Depth Outside</t>
         </is>
       </c>
       <c r="AQ49" t="inlineStr"/>
@@ -5746,7 +5938,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -5814,7 +6010,7 @@
       <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.033 Bebat weight</t>
+          <t>GS1 Field_ID 9.118 Accessories Available</t>
         </is>
       </c>
       <c r="AQ50" t="inlineStr"/>
@@ -5851,7 +6047,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -5919,7 +6119,7 @@
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.135 Type of Light Source Included</t>
+          <t>GS1 Field_ID 9.134 Power Cord/Cable</t>
         </is>
       </c>
       <c r="AQ51" t="inlineStr"/>
@@ -5956,7 +6156,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -6024,7 +6228,7 @@
       <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.656 Recytyre Indicator</t>
+          <t>GS1 Field_ID 0.132 Volatile Organic Compound</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr"/>
@@ -6061,7 +6265,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -6129,7 +6337,7 @@
       <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.129 To Be Used With Hub</t>
+          <t>GS1 Field_ID 9.135 Type of Light Source Included</t>
         </is>
       </c>
       <c r="AQ53" t="inlineStr"/>
@@ -6166,7 +6374,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -6234,7 +6446,7 @@
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.023 Bebat Quantity</t>
+          <t>GS1 Field_ID 9.103 Material Description</t>
         </is>
       </c>
       <c r="AQ54" t="inlineStr"/>
@@ -6271,7 +6483,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -6339,7 +6555,7 @@
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.136 Maximum Wattage Light Source</t>
+          <t>GS1 Field_ID 9.114 Time Setting Range</t>
         </is>
       </c>
       <c r="AQ55" t="inlineStr"/>
@@ -6376,7 +6592,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -6444,7 +6664,7 @@
       <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 4.651 Bebat Code Text</t>
+          <t>GS1 Field_ID 9.130 Light Bulb Base Type</t>
         </is>
       </c>
       <c r="AQ56" t="inlineStr"/>
@@ -6481,7 +6701,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -6549,7 +6773,7 @@
       <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.121 Suspension Height Gutter</t>
+          <t>GS1 Field_ID 4.033 Bebat weight</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr"/>
@@ -6586,7 +6810,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -6654,7 +6882,7 @@
       <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 9.116 Glass Thickness</t>
+          <t>GS1 Field_ID 9.125 TSA Certificate Indicator</t>
         </is>
       </c>
       <c r="AQ58" t="inlineStr"/>
@@ -6691,7 +6919,11 @@
           <t>Category Specific Attributes</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -6759,7 +6991,7 @@
       <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr">
         <is>
-          <t>GS1 Field_ID 8.332 Wecycle weight</t>
+          <t>GS1 Field_ID 9.124 ECO License Number</t>
         </is>
       </c>
       <c r="AQ59" t="inlineStr"/>
